--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H2">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I2">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J2">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.804216666666666</v>
+        <v>6.419094333333334</v>
       </c>
       <c r="N2">
-        <v>20.41265</v>
+        <v>19.257283</v>
       </c>
       <c r="O2">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="P2">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="Q2">
-        <v>25.70855781358889</v>
+        <v>29.35962584572455</v>
       </c>
       <c r="R2">
-        <v>231.3770203223</v>
+        <v>264.236632611521</v>
       </c>
       <c r="S2">
-        <v>0.3365409278427306</v>
+        <v>0.3633969431964463</v>
       </c>
       <c r="T2">
-        <v>0.3365409278427308</v>
+        <v>0.3633969431964463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H3">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I3">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J3">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.990212</v>
       </c>
       <c r="O3">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="P3">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="Q3">
-        <v>6.284884799576</v>
+        <v>7.608070007115999</v>
       </c>
       <c r="R3">
-        <v>56.56396319618401</v>
+        <v>68.472630064044</v>
       </c>
       <c r="S3">
-        <v>0.08227303052822287</v>
+        <v>0.09416841341025235</v>
       </c>
       <c r="T3">
-        <v>0.08227303052822288</v>
+        <v>0.09416841341025237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H4">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I4">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J4">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6000583333333332</v>
+        <v>0.9957783333333334</v>
       </c>
       <c r="N4">
-        <v>1.800175</v>
+        <v>2.987335</v>
       </c>
       <c r="O4">
-        <v>0.04680687377405539</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="P4">
-        <v>0.04680687377405538</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="Q4">
-        <v>2.267216802427778</v>
+        <v>4.554486625960556</v>
       </c>
       <c r="R4">
-        <v>20.40495122185</v>
+        <v>40.99037963364501</v>
       </c>
       <c r="S4">
-        <v>0.02967927068652466</v>
+        <v>0.0563728749950736</v>
       </c>
       <c r="T4">
-        <v>0.02967927068652466</v>
+        <v>0.05637287499507361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H5">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I5">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J5">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.657024</v>
+        <v>1.804098666666667</v>
       </c>
       <c r="N5">
-        <v>7.971071999999999</v>
+        <v>5.412296</v>
       </c>
       <c r="O5">
-        <v>0.2072581615386878</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="P5">
-        <v>0.2072581615386877</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="Q5">
-        <v>10.03910640452267</v>
+        <v>8.25157866383911</v>
       </c>
       <c r="R5">
-        <v>90.35195764070401</v>
+        <v>74.26420797455201</v>
       </c>
       <c r="S5">
-        <v>0.1314181140998945</v>
+        <v>0.1021334017926804</v>
       </c>
       <c r="T5">
-        <v>0.1314181140998945</v>
+        <v>0.1021334017926804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H6">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I6">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J6">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.095173333333333</v>
+        <v>0.6507176666666666</v>
       </c>
       <c r="N6">
-        <v>3.28552</v>
+        <v>1.952153</v>
       </c>
       <c r="O6">
-        <v>0.08542776114662989</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="P6">
-        <v>0.08542776114662988</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="Q6">
-        <v>4.137923340071112</v>
+        <v>2.976249644023444</v>
       </c>
       <c r="R6">
-        <v>37.24131006064</v>
+        <v>26.786246796211</v>
       </c>
       <c r="S6">
-        <v>0.05416797668337273</v>
+        <v>0.03683834489277497</v>
       </c>
       <c r="T6">
-        <v>0.05416797668337274</v>
+        <v>0.03683834489277497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4.171665</v>
       </c>
       <c r="I7">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J7">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.804216666666666</v>
+        <v>6.419094333333334</v>
       </c>
       <c r="N7">
-        <v>20.41265</v>
+        <v>19.257283</v>
       </c>
       <c r="O7">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="P7">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="Q7">
-        <v>9.461637506916666</v>
+        <v>8.926103720688333</v>
       </c>
       <c r="R7">
-        <v>85.15473756224999</v>
+        <v>80.334933486195</v>
       </c>
       <c r="S7">
-        <v>0.1238586889462237</v>
+        <v>0.1104822937389349</v>
       </c>
       <c r="T7">
-        <v>0.1238586889462237</v>
+        <v>0.1104822937389349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4.171665</v>
       </c>
       <c r="I8">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J8">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.990212</v>
       </c>
       <c r="O8">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="P8">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="Q8">
         <v>2.31305474922</v>
@@ -948,10 +948,10 @@
         <v>20.81749274298</v>
       </c>
       <c r="S8">
-        <v>0.03027931777029014</v>
+        <v>0.02862969132268337</v>
       </c>
       <c r="T8">
-        <v>0.03027931777029014</v>
+        <v>0.02862969132268337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4.171665</v>
       </c>
       <c r="I9">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J9">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6000583333333332</v>
+        <v>0.9957783333333334</v>
       </c>
       <c r="N9">
-        <v>1.800175</v>
+        <v>2.987335</v>
       </c>
       <c r="O9">
-        <v>0.04680687377405539</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="P9">
-        <v>0.04680687377405538</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="Q9">
-        <v>0.8344141157083332</v>
+        <v>1.384684540308333</v>
       </c>
       <c r="R9">
-        <v>7.509727041374999</v>
+        <v>12.462160862775</v>
       </c>
       <c r="S9">
-        <v>0.01092299703241707</v>
+        <v>0.01713884679196963</v>
       </c>
       <c r="T9">
-        <v>0.01092299703241707</v>
+        <v>0.01713884679196963</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4.171665</v>
       </c>
       <c r="I10">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J10">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.657024</v>
+        <v>1.804098666666667</v>
       </c>
       <c r="N10">
-        <v>7.971071999999999</v>
+        <v>5.412296</v>
       </c>
       <c r="O10">
-        <v>0.2072581615386878</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="P10">
-        <v>0.2072581615386877</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="Q10">
-        <v>3.69473800832</v>
+        <v>2.508698421426667</v>
       </c>
       <c r="R10">
-        <v>33.25264207488</v>
+        <v>22.57828579284</v>
       </c>
       <c r="S10">
-        <v>0.04836640648891512</v>
+        <v>0.0310512587094484</v>
       </c>
       <c r="T10">
-        <v>0.04836640648891513</v>
+        <v>0.0310512587094484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4.171665</v>
       </c>
       <c r="I11">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J11">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.095173333333333</v>
+        <v>0.6507176666666666</v>
       </c>
       <c r="N11">
-        <v>3.28552</v>
+        <v>1.952153</v>
       </c>
       <c r="O11">
-        <v>0.08542776114662989</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="P11">
-        <v>0.08542776114662988</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="Q11">
-        <v>1.522898754533333</v>
+        <v>0.9048587049716666</v>
       </c>
       <c r="R11">
-        <v>13.7060887908</v>
+        <v>8.143728344745</v>
       </c>
       <c r="S11">
-        <v>0.01993568692485282</v>
+        <v>0.01119983235274379</v>
       </c>
       <c r="T11">
-        <v>0.01993568692485282</v>
+        <v>0.01119983235274379</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H12">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I12">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J12">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.804216666666666</v>
+        <v>6.419094333333334</v>
       </c>
       <c r="N12">
-        <v>20.41265</v>
+        <v>19.257283</v>
       </c>
       <c r="O12">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="P12">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="Q12">
-        <v>1.711278636244444</v>
+        <v>2.277004678599222</v>
       </c>
       <c r="R12">
-        <v>15.4015077262</v>
+        <v>20.493042107393</v>
       </c>
       <c r="S12">
-        <v>0.02240169612838935</v>
+        <v>0.02818348381532461</v>
       </c>
       <c r="T12">
-        <v>0.02240169612838935</v>
+        <v>0.02818348381532461</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H13">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I13">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J13">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.990212</v>
       </c>
       <c r="O13">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="P13">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="Q13">
-        <v>0.4183505417439999</v>
+        <v>0.5900487660279999</v>
       </c>
       <c r="R13">
-        <v>3.765154875696</v>
+        <v>5.310438894251999</v>
       </c>
       <c r="S13">
-        <v>0.005476467427807858</v>
+        <v>0.007303291909717412</v>
       </c>
       <c r="T13">
-        <v>0.005476467427807858</v>
+        <v>0.007303291909717412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H14">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I14">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J14">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6000583333333332</v>
+        <v>0.9957783333333334</v>
       </c>
       <c r="N14">
-        <v>1.800175</v>
+        <v>2.987335</v>
       </c>
       <c r="O14">
-        <v>0.04680687377405539</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="P14">
-        <v>0.04680687377405538</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="Q14">
-        <v>0.1509162709888889</v>
+        <v>0.3532261415872223</v>
       </c>
       <c r="R14">
-        <v>1.3582464389</v>
+        <v>3.179035274285</v>
       </c>
       <c r="S14">
-        <v>0.001975587360187105</v>
+        <v>0.004372034602360715</v>
       </c>
       <c r="T14">
-        <v>0.001975587360187105</v>
+        <v>0.004372034602360715</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H15">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I15">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J15">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.657024</v>
+        <v>1.804098666666667</v>
       </c>
       <c r="N15">
-        <v>7.971071999999999</v>
+        <v>5.412296</v>
       </c>
       <c r="O15">
-        <v>0.2072581615386878</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="P15">
-        <v>0.2072581615386877</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="Q15">
-        <v>0.6682486213973332</v>
+        <v>0.6399564940684445</v>
       </c>
       <c r="R15">
-        <v>6.014237592575999</v>
+        <v>5.759608446616</v>
       </c>
       <c r="S15">
-        <v>0.008747787904143399</v>
+        <v>0.007921021710058793</v>
       </c>
       <c r="T15">
-        <v>0.008747787904143399</v>
+        <v>0.007921021710058793</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H16">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I16">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J16">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.095173333333333</v>
+        <v>0.6507176666666666</v>
       </c>
       <c r="N16">
-        <v>3.28552</v>
+        <v>1.952153</v>
       </c>
       <c r="O16">
-        <v>0.08542776114662989</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="P16">
-        <v>0.08542776114662988</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="Q16">
-        <v>0.2754390137955555</v>
+        <v>0.2308249566847778</v>
       </c>
       <c r="R16">
-        <v>2.47895112416</v>
+        <v>2.077424610163</v>
       </c>
       <c r="S16">
-        <v>0.003605667106610155</v>
+        <v>0.002857021547667829</v>
       </c>
       <c r="T16">
-        <v>0.003605667106610155</v>
+        <v>0.002857021547667829</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H17">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I17">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J17">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.804216666666666</v>
+        <v>6.419094333333334</v>
       </c>
       <c r="N17">
-        <v>20.41265</v>
+        <v>19.257283</v>
       </c>
       <c r="O17">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="P17">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="Q17">
-        <v>2.417733235877778</v>
+        <v>3.079387190869666</v>
       </c>
       <c r="R17">
-        <v>21.7595991229</v>
+        <v>27.714484717827</v>
       </c>
       <c r="S17">
-        <v>0.03164962392594545</v>
+        <v>0.03811492346532361</v>
       </c>
       <c r="T17">
-        <v>0.03164962392594546</v>
+        <v>0.03811492346532361</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H18">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I18">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J18">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>4.990212</v>
       </c>
       <c r="O18">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="P18">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="Q18">
-        <v>0.591055125448</v>
+        <v>0.7979731570919999</v>
       </c>
       <c r="R18">
-        <v>5.319496129032</v>
+        <v>7.181758413827999</v>
       </c>
       <c r="S18">
-        <v>0.007737277282015814</v>
+        <v>0.009876863130470663</v>
       </c>
       <c r="T18">
-        <v>0.007737277282015814</v>
+        <v>0.009876863130470663</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H19">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I19">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J19">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6000583333333332</v>
+        <v>0.9957783333333334</v>
       </c>
       <c r="N19">
-        <v>1.800175</v>
+        <v>2.987335</v>
       </c>
       <c r="O19">
-        <v>0.04680687377405539</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="P19">
-        <v>0.04680687377405538</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="Q19">
-        <v>0.2132179275055555</v>
+        <v>0.4776977694016667</v>
       </c>
       <c r="R19">
-        <v>1.91896134755</v>
+        <v>4.299279924615</v>
       </c>
       <c r="S19">
-        <v>0.002791154590456842</v>
+        <v>0.00591267443544775</v>
       </c>
       <c r="T19">
-        <v>0.002791154590456842</v>
+        <v>0.00591267443544775</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H20">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I20">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J20">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.657024</v>
+        <v>1.804098666666667</v>
       </c>
       <c r="N20">
-        <v>7.971071999999999</v>
+        <v>5.412296</v>
       </c>
       <c r="O20">
-        <v>0.2072581615386878</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="P20">
-        <v>0.2072581615386877</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="Q20">
-        <v>0.9441167952213333</v>
+        <v>0.8654676246693332</v>
       </c>
       <c r="R20">
-        <v>8.497051156992001</v>
+        <v>7.789208622024</v>
       </c>
       <c r="S20">
-        <v>0.01235907298105018</v>
+        <v>0.01071227170581007</v>
       </c>
       <c r="T20">
-        <v>0.01235907298105018</v>
+        <v>0.01071227170581007</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H21">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I21">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J21">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.095173333333333</v>
+        <v>0.6507176666666666</v>
       </c>
       <c r="N21">
-        <v>3.28552</v>
+        <v>1.952153</v>
       </c>
       <c r="O21">
-        <v>0.08542776114662989</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="P21">
-        <v>0.08542776114662988</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="Q21">
-        <v>0.3891464803022223</v>
+        <v>0.3121642312063333</v>
       </c>
       <c r="R21">
-        <v>3.50231832272</v>
+        <v>2.809478080857</v>
       </c>
       <c r="S21">
-        <v>0.00509416819477982</v>
+        <v>0.003863793360029133</v>
       </c>
       <c r="T21">
-        <v>0.005094168194779821</v>
+        <v>0.003863793360029133</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H22">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I22">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J22">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.804216666666666</v>
+        <v>6.419094333333334</v>
       </c>
       <c r="N22">
-        <v>20.41265</v>
+        <v>19.257283</v>
       </c>
       <c r="O22">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="P22">
-        <v>0.5307552498751353</v>
+        <v>0.5565804709398713</v>
       </c>
       <c r="Q22">
-        <v>1.245495984327778</v>
+        <v>1.325219885418556</v>
       </c>
       <c r="R22">
-        <v>11.20946385895</v>
+        <v>11.926978968767</v>
       </c>
       <c r="S22">
-        <v>0.01630431303184607</v>
+        <v>0.01640282672384183</v>
       </c>
       <c r="T22">
-        <v>0.01630431303184607</v>
+        <v>0.01640282672384183</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H23">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I23">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J23">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>4.990212</v>
       </c>
       <c r="O23">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="P23">
-        <v>0.1297519536654917</v>
+        <v>0.1442287858079355</v>
       </c>
       <c r="Q23">
-        <v>0.304482220924</v>
+        <v>0.343409201332</v>
       </c>
       <c r="R23">
-        <v>2.740339988316</v>
+        <v>3.090682811988</v>
       </c>
       <c r="S23">
-        <v>0.003985860657154982</v>
+        <v>0.004250526034811669</v>
       </c>
       <c r="T23">
-        <v>0.003985860657154982</v>
+        <v>0.00425052603481167</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H24">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I24">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J24">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6000583333333332</v>
+        <v>0.9957783333333334</v>
       </c>
       <c r="N24">
-        <v>1.800175</v>
+        <v>2.987335</v>
       </c>
       <c r="O24">
-        <v>0.04680687377405539</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="P24">
-        <v>0.04680687377405538</v>
+        <v>0.08634096103563314</v>
       </c>
       <c r="Q24">
-        <v>0.1098392777805555</v>
+        <v>0.2055781049905556</v>
       </c>
       <c r="R24">
-        <v>0.988553500025</v>
+        <v>1.850202944915</v>
       </c>
       <c r="S24">
-        <v>0.001437864104469704</v>
+        <v>0.00254453021078145</v>
       </c>
       <c r="T24">
-        <v>0.001437864104469704</v>
+        <v>0.00254453021078145</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H25">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I25">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J25">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.657024</v>
+        <v>1.804098666666667</v>
       </c>
       <c r="N25">
-        <v>7.971071999999999</v>
+        <v>5.412296</v>
       </c>
       <c r="O25">
-        <v>0.2072581615386878</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="P25">
-        <v>0.2072581615386877</v>
+        <v>0.1564279995545572</v>
       </c>
       <c r="Q25">
-        <v>0.4863620434773334</v>
+        <v>0.3724555683671111</v>
       </c>
       <c r="R25">
-        <v>4.377258391296</v>
+        <v>3.352100115304001</v>
       </c>
       <c r="S25">
-        <v>0.006366780064684561</v>
+        <v>0.004610045636559541</v>
       </c>
       <c r="T25">
-        <v>0.006366780064684561</v>
+        <v>0.004610045636559541</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H26">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I26">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J26">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.095173333333333</v>
+        <v>0.6507176666666666</v>
       </c>
       <c r="N26">
-        <v>3.28552</v>
+        <v>1.952153</v>
       </c>
       <c r="O26">
-        <v>0.08542776114662989</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="P26">
-        <v>0.08542776114662988</v>
+        <v>0.05642178266200287</v>
       </c>
       <c r="Q26">
-        <v>0.2004689232622222</v>
+        <v>0.1343404453774444</v>
       </c>
       <c r="R26">
-        <v>1.80422030936</v>
+        <v>1.209064008397</v>
       </c>
       <c r="S26">
-        <v>0.002624262237014347</v>
+        <v>0.001662790508787143</v>
       </c>
       <c r="T26">
-        <v>0.002624262237014347</v>
+        <v>0.001662790508787143</v>
       </c>
     </row>
   </sheetData>
